--- a/DownloadData/Sectors.xlsx
+++ b/DownloadData/Sectors.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documentos\Programs\Fecap\Tcc\DownloadData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF68DAA6-C741-477C-92C7-60234CDCB2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB9CF2-B74C-4ACA-B20A-8A9360FD916C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Industries" sheetId="1" r:id="rId1"/>
-    <sheet name="Sectors" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Industries!$A$1:$C$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -399,29 +399,35 @@
     <t>Artefatos de Cobre</t>
   </si>
   <si>
-    <t>Varejo</t>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Industrial</t>
   </si>
   <si>
     <t>Commodities</t>
   </si>
   <si>
-    <t>Indústria</t>
-  </si>
-  <si>
-    <t>Energia</t>
-  </si>
-  <si>
     <t>Imobiliário</t>
   </si>
   <si>
-    <t>Id Setor</t>
+    <t>Materiais básicos</t>
+  </si>
+  <si>
+    <t>Agronegócio</t>
+  </si>
+  <si>
+    <t>Consumo não-cíclico</t>
+  </si>
+  <si>
+    <t>Consumo cíclico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,18 +438,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -458,9 +484,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,164 +799,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>125</v>
+      <c r="C1" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -932,10 +965,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -943,527 +976,527 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
       <c r="C44">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
       <c r="C45">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1471,197 +1504,197 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -1669,543 +1702,563 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C116">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C119">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D27523-6755-4ACE-BA87-958BD69E7D08}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C45889-40F3-47B0-9C9F-D0CA3CF96B4C}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B15">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>